--- a/Tourism stock.xlsx
+++ b/Tourism stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51A9BBAC611E7AEB/Dokumenty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1089" documentId="8_{B6556535-1BE5-47D9-A6AE-0F84ACD25CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06046C6D-FB62-4180-8BA3-FC9D54E26B58}"/>
+  <xr:revisionPtr revIDLastSave="1129" documentId="8_{B6556535-1BE5-47D9-A6AE-0F84ACD25CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD7C479-2CE3-47BD-9C71-12704BE39659}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{904B2C61-7706-42B0-99C0-EC2AF17897C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{904B2C61-7706-42B0-99C0-EC2AF17897C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -2067,9 +2067,6 @@
     <t>Stock Lookup:</t>
   </si>
   <si>
-    <t>ABNB</t>
-  </si>
-  <si>
     <t>Time Period (months):</t>
   </si>
   <si>
@@ -2086,6 +2083,9 @@
   </si>
   <si>
     <t>6 month Trailing Closing Prices</t>
+  </si>
+  <si>
+    <t>ABNB</t>
   </si>
 </sst>
 </file>
@@ -4788,22 +4788,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.59200878720690431</c:v>
+                  <c:v>0.59116625385346977</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.60231568634398E-3</c:v>
+                  <c:v>4.6083369058923301E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3870040074406213</c:v>
+                  <c:v>0.38780654204285897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5618263917473897E-2</c:v>
+                  <c:v>1.5650651688607187E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.84556655616452E-5</c:v>
+                  <c:v>1.8493937284768944E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4817008309493917E-4</c:v>
+                  <c:v>7.4972157188704137E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5069,10 +5069,10 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>459139</c:v>
+                  <c:v>457493.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-14782.88</c:v>
+                  <c:v>-14785.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>248845</c:v>
@@ -5218,11 +5218,1751 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Charting!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
               <c:f>Charting!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>136.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9367-44DF-A833-3DCBD4AEEE77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45601</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>137.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000078-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45602</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>140.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000079-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45603</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>147.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007A-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45604</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>134.61000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007B-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45607</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>137.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007C-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45608</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>133.19999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007D-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45609</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>132.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007E-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45610</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>134.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007F-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45611</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>132.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000080-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45614</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>132.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000081-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45615</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000082-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45616</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>135.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000083-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45617</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>133.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000084-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45618</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>137.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000085-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45621</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>140.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000086-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45622</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>139.66999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000087-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45623</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>138.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000088-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45625</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>136.11000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000089-3580-45CA-8F22-4953F15DFE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45628</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>137.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003F-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45629</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>137.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000040-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45630</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>139.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000041-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45631</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>136.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000042-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45632</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>136.91999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000043-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45635</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>137.27000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000044-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45636</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>138.30000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000045-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45637</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>138.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000046-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45638</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>137.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000047-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45639</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>130.94999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000048-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45642</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>132.19999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000049-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="30"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45643</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5242,385 +6982,24 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Charting!$B$8:$B$68</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>45600</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45602</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45603</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45604</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45607</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45608</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45609</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45610</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45611</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45615</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45616</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45617</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45618</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45621</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45622</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45623</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45628</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45629</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45630</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45631</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45632</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45635</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45636</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45637</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45638</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45639</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45642</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45643</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45644</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45645</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45646</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45649</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45650</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45652</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45653</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45656</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45657</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45659</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45660</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>45663</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45664</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45665</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45667</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45670</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45671</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45672</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45673</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45674</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45678</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45679</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>45680</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45681</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45684</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45685</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45686</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45687</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>45688</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>45691</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charting!$C$8:$C$68</c:f>
+              <c:f>Charting!$C$38</c:f>
               <c:numCache>
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>136.87</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>137.82</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>140.91</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>147.37</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>134.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>137.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>133.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132.76</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>134.56</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>132.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>132.19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>131.44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>135.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>133.26</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>137.34</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>140.93</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>139.66999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>138.28</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>136.11000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>137.49</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>137.46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>139.07</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>136.32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>136.91999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>137.27000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>138.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>138.84</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>137.47</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>130.94999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>132.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>132.24</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>127.54</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>129.35</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>134.21</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>134.52000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>134.99</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>135.32</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>133.38499999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>131.81</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>131.41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131.47999999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>135.71</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>135.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>131.29</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>130.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>129.63</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>128.85</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>127.6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>132.52000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>132.16</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>135.12</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>133.07</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>132.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>133.24</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>127.09</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>128.96</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>131.05000000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>132.58000000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>131.79</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>131.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>129.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5628,7 +7007,1747 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9367-44DF-A833-3DCBD4AEEE77}"/>
+              <c16:uniqueId val="{0000004A-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="31"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45644</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>127.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004B-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="32"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45645</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>129.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004C-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="33"/>
+          <c:order val="33"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45646</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>134.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004D-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="34"/>
+          <c:order val="34"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45649</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>134.52000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004E-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="35"/>
+          <c:order val="35"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45650</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>134.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004F-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="36"/>
+          <c:order val="36"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45652</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>135.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000050-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="37"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45653</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>133.38499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000051-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="38"/>
+          <c:order val="38"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45656</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000052-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="39"/>
+          <c:order val="39"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45657</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000053-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="40"/>
+          <c:order val="40"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45659</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131.47999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000054-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="41"/>
+          <c:order val="41"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45660</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>135.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000055-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="42"/>
+          <c:order val="42"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45663</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>135.19999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000056-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="43"/>
+          <c:order val="43"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45664</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000057-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="44"/>
+          <c:order val="44"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45665</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>130.80000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000058-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="45"/>
+          <c:order val="45"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45667</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>129.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000059-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="46"/>
+          <c:order val="46"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45670</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000005A-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="47"/>
+          <c:order val="47"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45671</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>127.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000005B-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="48"/>
+          <c:order val="48"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45672</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>132.52000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000005C-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="49"/>
+          <c:order val="49"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45673</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>132.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000005D-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="50"/>
+          <c:order val="50"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45674</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>135.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000005E-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="51"/>
+          <c:order val="51"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45678</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>133.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000005F-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="52"/>
+          <c:order val="52"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45679</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>132.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000060-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="53"/>
+          <c:order val="53"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45680</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>133.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000061-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="54"/>
+          <c:order val="54"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45681</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>127.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000062-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="55"/>
+          <c:order val="55"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45684</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000063-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="56"/>
+          <c:order val="56"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45685</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131.05000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000064-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="57"/>
+          <c:order val="57"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45686</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>132.58000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000065-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="58"/>
+          <c:order val="58"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45687</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000066-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="59"/>
+          <c:order val="59"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45688</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131.16999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000067-EE2B-4D13-AE76-60425A81C64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="60"/>
+          <c:order val="60"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charting!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45691</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charting!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charting!$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>129.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000068-EE2B-4D13-AE76-60425A81C64D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5644,14 +8763,14 @@
         <c:axId val="697811528"/>
         <c:axId val="697811168"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="697811528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5690,9 +8809,10 @@
         <c:crossAx val="697811168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="697811168"/>
         <c:scaling>
@@ -11617,132 +14737,6 @@
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
 <arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
-  <a r="1" c="61">
-    <v t="i">0</v>
-    <v t="i">1</v>
-    <v t="i">2</v>
-    <v t="i">3</v>
-    <v t="i">4</v>
-    <v t="i">7</v>
-    <v t="i">8</v>
-    <v t="i">9</v>
-    <v t="i">10</v>
-    <v t="i">11</v>
-    <v t="i">14</v>
-    <v t="i">15</v>
-    <v t="i">16</v>
-    <v t="i">17</v>
-    <v t="i">18</v>
-    <v t="i">21</v>
-    <v t="i">22</v>
-    <v t="i">23</v>
-    <v t="i">25</v>
-    <v t="i">28</v>
-    <v t="i">29</v>
-    <v t="i">30</v>
-    <v t="i">31</v>
-    <v t="i">32</v>
-    <v t="i">35</v>
-    <v t="i">36</v>
-    <v t="i">37</v>
-    <v t="i">38</v>
-    <v t="i">39</v>
-    <v t="i">42</v>
-    <v t="i">43</v>
-    <v t="i">44</v>
-    <v t="i">45</v>
-    <v t="i">46</v>
-    <v t="i">49</v>
-    <v t="i">50</v>
-    <v t="i">52</v>
-    <v t="i">53</v>
-    <v t="i">56</v>
-    <v t="i">57</v>
-    <v t="i">59</v>
-    <v t="i">60</v>
-    <v t="i">63</v>
-    <v t="i">64</v>
-    <v t="i">65</v>
-    <v t="i">67</v>
-    <v t="i">70</v>
-    <v t="i">71</v>
-    <v t="i">72</v>
-    <v t="i">73</v>
-    <v t="i">74</v>
-    <v t="i">78</v>
-    <v t="i">79</v>
-    <v t="i">80</v>
-    <v t="i">81</v>
-    <v t="i">84</v>
-    <v t="i">85</v>
-    <v t="i">86</v>
-    <v t="i">87</v>
-    <v t="i">88</v>
-    <v t="i">91</v>
-  </a>
-  <a r="1" c="61">
-    <v>136.87</v>
-    <v>137.82</v>
-    <v>140.91</v>
-    <v>147.37</v>
-    <v>134.61000000000001</v>
-    <v>137.4</v>
-    <v>133.19999999999999</v>
-    <v>132.76</v>
-    <v>134.56</v>
-    <v>132.5</v>
-    <v>132.19</v>
-    <v>131.44</v>
-    <v>135.25</v>
-    <v>133.26</v>
-    <v>137.34</v>
-    <v>140.93</v>
-    <v>139.66999999999999</v>
-    <v>138.28</v>
-    <v>136.11000000000001</v>
-    <v>137.49</v>
-    <v>137.46</v>
-    <v>139.07</v>
-    <v>136.32</v>
-    <v>136.91999999999999</v>
-    <v>137.27000000000001</v>
-    <v>138.30000000000001</v>
-    <v>138.84</v>
-    <v>137.47</v>
-    <v>130.94999999999999</v>
-    <v>132.19999999999999</v>
-    <v>132.24</v>
-    <v>127.54</v>
-    <v>129.35</v>
-    <v>134.21</v>
-    <v>134.52000000000001</v>
-    <v>134.99</v>
-    <v>135.32</v>
-    <v>133.38499999999999</v>
-    <v>131.81</v>
-    <v>131.41</v>
-    <v>131.47999999999999</v>
-    <v>135.71</v>
-    <v>135.19999999999999</v>
-    <v>131.29</v>
-    <v>130.80000000000001</v>
-    <v>129.63</v>
-    <v>128.85</v>
-    <v>127.6</v>
-    <v>132.52000000000001</v>
-    <v>132.16</v>
-    <v>135.12</v>
-    <v>133.07</v>
-    <v>132.5</v>
-    <v>133.24</v>
-    <v>127.09</v>
-    <v>128.96</v>
-    <v>131.05000000000001</v>
-    <v>132.58000000000001</v>
-    <v>131.79</v>
-    <v>131.16999999999999</v>
-    <v>129.78</v>
-  </a>
   <a r="1" c="63">
     <v t="i">0</v>
     <v t="i">1</v>
@@ -11873,6 +14867,132 @@
     <v>20.350000000000001</v>
     <v>20.36</v>
   </a>
+  <a r="1" c="61">
+    <v t="i">0</v>
+    <v t="i">1</v>
+    <v t="i">2</v>
+    <v t="i">3</v>
+    <v t="i">4</v>
+    <v t="i">7</v>
+    <v t="i">8</v>
+    <v t="i">9</v>
+    <v t="i">10</v>
+    <v t="i">11</v>
+    <v t="i">14</v>
+    <v t="i">15</v>
+    <v t="i">16</v>
+    <v t="i">17</v>
+    <v t="i">18</v>
+    <v t="i">21</v>
+    <v t="i">22</v>
+    <v t="i">23</v>
+    <v t="i">25</v>
+    <v t="i">28</v>
+    <v t="i">29</v>
+    <v t="i">30</v>
+    <v t="i">31</v>
+    <v t="i">32</v>
+    <v t="i">35</v>
+    <v t="i">36</v>
+    <v t="i">37</v>
+    <v t="i">38</v>
+    <v t="i">39</v>
+    <v t="i">42</v>
+    <v t="i">43</v>
+    <v t="i">44</v>
+    <v t="i">45</v>
+    <v t="i">46</v>
+    <v t="i">49</v>
+    <v t="i">50</v>
+    <v t="i">52</v>
+    <v t="i">53</v>
+    <v t="i">56</v>
+    <v t="i">57</v>
+    <v t="i">59</v>
+    <v t="i">60</v>
+    <v t="i">63</v>
+    <v t="i">64</v>
+    <v t="i">65</v>
+    <v t="i">67</v>
+    <v t="i">70</v>
+    <v t="i">71</v>
+    <v t="i">72</v>
+    <v t="i">73</v>
+    <v t="i">74</v>
+    <v t="i">78</v>
+    <v t="i">79</v>
+    <v t="i">80</v>
+    <v t="i">81</v>
+    <v t="i">84</v>
+    <v t="i">85</v>
+    <v t="i">86</v>
+    <v t="i">87</v>
+    <v t="i">88</v>
+    <v t="i">91</v>
+  </a>
+  <a r="1" c="61">
+    <v>136.87</v>
+    <v>137.82</v>
+    <v>140.91</v>
+    <v>147.37</v>
+    <v>134.61000000000001</v>
+    <v>137.4</v>
+    <v>133.19999999999999</v>
+    <v>132.76</v>
+    <v>134.56</v>
+    <v>132.5</v>
+    <v>132.19</v>
+    <v>131.44</v>
+    <v>135.25</v>
+    <v>133.26</v>
+    <v>137.34</v>
+    <v>140.93</v>
+    <v>139.66999999999999</v>
+    <v>138.28</v>
+    <v>136.11000000000001</v>
+    <v>137.49</v>
+    <v>137.46</v>
+    <v>139.07</v>
+    <v>136.32</v>
+    <v>136.91999999999999</v>
+    <v>137.27000000000001</v>
+    <v>138.30000000000001</v>
+    <v>138.84</v>
+    <v>137.47</v>
+    <v>130.94999999999999</v>
+    <v>132.19999999999999</v>
+    <v>132.24</v>
+    <v>127.54</v>
+    <v>129.35</v>
+    <v>134.21</v>
+    <v>134.52000000000001</v>
+    <v>134.99</v>
+    <v>135.32</v>
+    <v>133.38499999999999</v>
+    <v>131.81</v>
+    <v>131.41</v>
+    <v>131.47999999999999</v>
+    <v>135.71</v>
+    <v>135.19999999999999</v>
+    <v>131.29</v>
+    <v>130.80000000000001</v>
+    <v>129.63</v>
+    <v>128.85</v>
+    <v>127.6</v>
+    <v>132.52000000000001</v>
+    <v>132.16</v>
+    <v>135.12</v>
+    <v>133.07</v>
+    <v>132.5</v>
+    <v>133.24</v>
+    <v>127.09</v>
+    <v>128.96</v>
+    <v>131.05000000000001</v>
+    <v>132.58000000000001</v>
+    <v>131.79</v>
+    <v>131.16999999999999</v>
+    <v>129.78</v>
+  </a>
 </arrayData>
 </file>
 
@@ -11897,8 +15017,8 @@
     <v>5337.24</v>
     <v>3180</v>
     <v>1.4172</v>
-    <v>22.47</v>
-    <v>4.7879999999999997E-3</v>
+    <v>6.0149999999999997</v>
+    <v>1.2820000000000002E-3</v>
     <v>USD</v>
     <v>Booking Holdings Inc. is a provider of travel and restaurant online reservation and related services. The Company offers its services through five consumer-facing brands: Booking.com, Priceline.com, agoda.com, KAYAK and OpenTable, Inc. (OpenTable). Through the Company's brands, consumers can: book a range of accommodations (including hotels, motels, resorts, homes, apartments, bed and breakfasts, hostels, and other accommodation properties) and a flight to their destinations; make a car rental reservation or arrange for an airport taxi; make a dinner reservation; or book a vacation package, tour, activity, or cruise. Consumers can also use the Company’s meta-search services to easily compare travel reservation information, such as flight, hotel, and rental car reservations from online travel platforms at once. Booking.com offers accommodation reservation services for approximately 3.4 million properties in over 220 countries and territories, and in over 40 languages.</v>
     <v>23600</v>
@@ -11909,20 +15029,20 @@
     <v>4722.33</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45692.724203008591</v>
+    <v>45692.748380358593</v>
     <v>0</v>
     <v>4658.0450000000001</v>
-    <v>156063233432</v>
+    <v>155518627069</v>
     <v>BOOKING HOLDINGS INC.</v>
     <v>BOOKING HOLDINGS INC.</v>
     <v>4670.51</v>
     <v>31.842600000000001</v>
     <v>4692.8999999999996</v>
-    <v>4715.37</v>
+    <v>4698.915</v>
     <v>33096710</v>
     <v>BKNG</v>
     <v>BOOKING HOLDINGS INC. (XNAS:BKNG)</v>
-    <v>100636</v>
+    <v>108203</v>
     <v>235083</v>
     <v>1998</v>
   </rv>
@@ -11948,8 +15068,8 @@
     <v>170.1</v>
     <v>110.38</v>
     <v>1.1267</v>
-    <v>1.1399999999999999</v>
-    <v>8.7840000000000001E-3</v>
+    <v>1.04</v>
+    <v>8.0140000000000003E-3</v>
     <v>USD</v>
     <v>Airbnb, Inc. operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It built its platform to onboard new hosts, especially those who previously had not considered hosting. It partners with hosts throughout the process of setting up their listing and provides them with a suite of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protection, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests with a way to explore a variety of homes and experiences and an easy way to book them. Its technology platform powers its two-sided marketplace and enables its global network of hosts and guests. The Company owns a trademark portfolio with protection in 170 countries in which it operates for its primary brands, AIRBNB, and its Belo logo.</v>
     <v>6907</v>
@@ -11960,20 +15080,20 @@
     <v>131.49</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45692.724202349222</v>
+    <v>45692.748455878907</v>
     <v>3</v>
     <v>129.22999999999999</v>
-    <v>81795110963</v>
+    <v>81732633794</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
     <v>129.58000000000001</v>
     <v>45.552999999999997</v>
     <v>129.78</v>
-    <v>130.91999999999999</v>
+    <v>130.82</v>
     <v>624771700</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>1125630</v>
+    <v>1235777</v>
     <v>3742193</v>
     <v>2008</v>
   </rv>
@@ -12011,7 +15131,7 @@
     <v>1304</v>
     <v>Passenger Transportation Services</v>
     <v>Stock</v>
-    <v>45692.632162962502</v>
+    <v>45692.669969212497</v>
     <v>6</v>
     <v>1221</v>
     <v>1271609000</v>
@@ -12024,7 +15144,7 @@
     <v>103392000</v>
     <v>WIZZ</v>
     <v>WIZZ AIR HOLDINGS PLC (XLON:WIZZ)</v>
-    <v>663456</v>
+    <v>663891</v>
     <v>730270</v>
     <v>2009</v>
   </rv>
@@ -12050,8 +15170,8 @@
     <v>60.292000000000002</v>
     <v>36.956000000000003</v>
     <v>1.4719</v>
-    <v>0.67</v>
-    <v>1.4455000000000001E-2</v>
+    <v>0.71</v>
+    <v>1.5318E-2</v>
     <v>USD</v>
     <v>Ryanair Holdings PLC is an Ireland-based airline company. It comprises five separate airlines: Buzz, Lauda Europe (Lauda), Malta Air, Ryanair DAC and Ryanair UK Limited. It has an operating fleet of approximately 594, including Boeing 737s and Airbus A320 aircraft. The fleet comprises approximately 300 Boeing 737 MAX 10, 156 Gamechangers, 335 B737- Next Gen, and 27 A320 aircraft. It provides various ancillary services and engages in other activities connected with its core air passenger service, including non-flight scheduled services, Internet-related services, and the in-flight sale of beverages, food, duty-free, and merchandise. It markets car hire, travel insurance and accommodation services through its website and mobile application. It offers car hire services via a contract with Rental Cars. It markets car parking, fast-track, airport transfers, and attractions through online. It provides its own aircraft and passenger handling and ticketing services at Dublin Airport.</v>
     <v>27076</v>
@@ -12062,20 +15182,20 @@
     <v>47.49</v>
     <v>Passenger Transportation Services</v>
     <v>Stock</v>
-    <v>45692.724173390627</v>
+    <v>45692.748425289064</v>
     <v>9</v>
-    <v>46.99</v>
+    <v>46.914999999999999</v>
     <v>22766250000</v>
     <v>RYANAIR HOLDINGS PUBLIC LIMITED COMPANY</v>
     <v>RYANAIR HOLDINGS PUBLIC LIMITED COMPANY</v>
     <v>47.23</v>
     <v>14.993</v>
     <v>46.35</v>
-    <v>47.02</v>
+    <v>47.06</v>
     <v>539557900</v>
     <v>RYAAY</v>
     <v>RYANAIR HOLDINGS PUBLIC LIMITED COMPANY (XNAS:RYAAY)</v>
-    <v>453206</v>
+    <v>483168</v>
     <v>1183894</v>
     <v>1996</v>
   </rv>
@@ -12101,8 +15221,8 @@
     <v>28.76</v>
     <v>12.925000000000001</v>
     <v>1.3341000000000001</v>
-    <v>0.26</v>
-    <v>1.5055000000000001E-2</v>
+    <v>0.22500000000000001</v>
+    <v>1.3028E-2</v>
     <v>USD</v>
     <v>TripAdvisor, Inc. is an online travel company. The Company leverage its brands, technology, and capabilities to connect its global audience with partners through content, travel guidance, and two-sided marketplaces for experiences, accommodations, restaurants, and other travel categories. The Company operates through three segments: Brand Tripadvisor, Viator, and TheFork. Its Brand Tripadvisor segment is engaged in providing an online global platform for travelers to discover, generate, and share authentic user-generated content (UGC) in the form of ratings and reviews for destinations, points-of-interest (POIs), experiences, accommodations, restaurants, and cruises. The Viator segment offers travelers a comprehensive online marketplace that provides access to over 350,000 experiences and more than 55,000 experience operators. The Fork segment offers an online marketplace that enables diners to discover and book online reservations at approximately 55,000 restaurants in 11 countries.</v>
     <v>2890</v>
@@ -12113,7 +15233,7 @@
     <v>17.574999999999999</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45692.724230774998</v>
+    <v>45692.748412707813</v>
     <v>12</v>
     <v>16.98</v>
     <v>2406330000</v>
@@ -12122,11 +15242,11 @@
     <v>17.559999999999999</v>
     <v>78.9114</v>
     <v>17.27</v>
-    <v>17.53</v>
+    <v>17.495000000000001</v>
     <v>139335900</v>
     <v>TRIP</v>
     <v>TRIPADVISOR, INC. (XNAS:TRIP)</v>
-    <v>638244</v>
+    <v>729557</v>
     <v>2499548</v>
     <v>2011</v>
   </rv>
@@ -13107,30 +16227,30 @@
   </rv>
   <rv s="6">
     <v>21</v>
+    <v>ai48rw</v>
+    <v>Daily</v>
+    <v>45600</v>
+    <v>45692</v>
+    <v>0</v>
+    <v>1</v>
+    <v>638741376000000000,638742887383969385,0</v>
+    <v>0</v>
+    <v>ai48rw</v>
+    <v>XDUB:RYA</v>
+    <v>1</v>
+  </rv>
+  <rv s="6">
+    <v>22</v>
     <v>ABNB</v>
     <v>Daily</v>
     <v>45600</v>
     <v>45692</v>
     <v>0</v>
     <v>1</v>
-    <v>638741376000000000,638742830944298982,0</v>
-    <v>0</v>
+    <v>638741376000000000,638742887419736024,0</v>
+    <v>2</v>
     <v>bwvem7</v>
     <v>XNAS:ABNB</v>
-    <v>1</v>
-  </rv>
-  <rv s="6">
-    <v>22</v>
-    <v>ai48rw</v>
-    <v>Daily</v>
-    <v>45600</v>
-    <v>45692</v>
-    <v>0</v>
-    <v>1</v>
-    <v>638741376000000000,638742839326390612,0</v>
-    <v>2</v>
-    <v>ai48rw</v>
-    <v>XDUB:RYA</v>
     <v>3</v>
   </rv>
 </rvData>
@@ -13615,11 +16735,11 @@
     </spb>
     <spb s="12">
       <v>16</v>
-      <v>1</v>
+      <v>14</v>
     </spb>
     <spb s="12">
       <v>16</v>
-      <v>14</v>
+      <v>1</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -14461,7 +17581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47395CF-76E8-4AFA-B708-4C0B82259A80}">
   <dimension ref="B3:L70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14474,12 +17596,12 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="20"/>
@@ -14509,7 +17631,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18">
@@ -14517,7 +17639,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18">
@@ -15674,8 +18796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07863FD5-A566-42F7-8BAE-8362E53BCE59}">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA44" sqref="AA44"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15762,18 +18884,18 @@
       <c r="L4" s="22"/>
       <c r="M4" s="23">
         <f ca="1">SUM(_xlfn.ANCHORARRAY(K10))</f>
-        <v>796503.38</v>
+        <v>794855.08</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="24">
         <f ca="1">SUM(_xlfn.ANCHORARRAY(O10))</f>
-        <v>1203.7900000000261</v>
+        <v>-444.5099999999664</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="25">
         <f ca="1">SUM(_xlfn.ANCHORARRAY(Q10))</f>
-        <v>605770.00999999989</v>
+        <v>604121.71</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
@@ -15859,23 +18981,23 @@
       </c>
       <c r="I10" s="28" cm="1">
         <f t="array" aca="1" ref="I10:I15" ca="1">_FV(_xlfn.ANCHORARRAY(B10),"Price")</f>
-        <v>4715.37</v>
+        <v>4698.915</v>
       </c>
       <c r="K10" s="28" cm="1">
         <f t="array" aca="1" ref="K10:K15" ca="1">_xlfn.ANCHORARRAY(I10)*_xlfn.ANCHORARRAY(G10)</f>
-        <v>471537</v>
+        <v>469891.5</v>
       </c>
       <c r="M10" s="29" cm="1">
         <f t="array" aca="1" ref="M10:M15" ca="1">_xlfn.ANCHORARRAY(K10)/SUM(_xlfn.ANCHORARRAY(K10))</f>
-        <v>0.59200878720690431</v>
+        <v>0.59116625385346977</v>
       </c>
       <c r="O10" s="30" cm="1">
         <f t="array" aca="1" ref="O10:O15" ca="1">(_xlfn.ANCHORARRAY(I10)-_FV(_xlfn.ANCHORARRAY(B10),"Previous close",TRUE))*_xlfn.ANCHORARRAY(G10)</f>
-        <v>2247.0000000000255</v>
+        <v>601.50000000003274</v>
       </c>
       <c r="Q10" s="28" cm="1">
         <f t="array" aca="1" ref="Q10:Q15" ca="1">_xlfn.ANCHORARRAY(K10)-SUMIFS(Table1[Total Transaction Amount],Table1[Company],_xlfn.ANCHORARRAY(DASHBOARD!B10))</f>
-        <v>459139</v>
+        <v>457493.5</v>
       </c>
       <c r="S10" s="31" cm="1">
         <f t="array" aca="1" ref="S10:S15" ca="1">_FV(_xlfn.ANCHORARRAY(B10),"52 week low",TRUE)</f>
@@ -15900,23 +19022,23 @@
       </c>
       <c r="I11" s="28">
         <f ca="1"/>
-        <v>130.91999999999999</v>
+        <v>130.82</v>
       </c>
       <c r="K11" s="28">
         <f ca="1"/>
-        <v>3665.7599999999998</v>
+        <v>3662.96</v>
       </c>
       <c r="M11" s="29">
         <f ca="1"/>
-        <v>4.60231568634398E-3</v>
+        <v>4.6083369058923301E-3</v>
       </c>
       <c r="O11" s="30">
         <f ca="1"/>
-        <v>31.919999999999618</v>
+        <v>29.119999999999777</v>
       </c>
       <c r="Q11" s="28">
         <f ca="1"/>
-        <v>-14782.88</v>
+        <v>-14785.68</v>
       </c>
       <c r="S11" s="31">
         <f ca="1"/>
@@ -15949,7 +19071,7 @@
       </c>
       <c r="M12" s="29">
         <f ca="1"/>
-        <v>0.3870040074406213</v>
+        <v>0.38780654204285897</v>
       </c>
       <c r="O12" s="30">
         <f ca="1"/>
@@ -15990,7 +19112,7 @@
       </c>
       <c r="M13" s="29">
         <f ca="1"/>
-        <v>1.5618263917473897E-2</v>
+        <v>1.5650651688607187E-2</v>
       </c>
       <c r="O13" s="30">
         <f ca="1"/>
@@ -16031,7 +19153,7 @@
       </c>
       <c r="M14" s="29">
         <f ca="1"/>
-        <v>1.84556655616452E-5</v>
+        <v>1.8493937284768944E-5</v>
       </c>
       <c r="O14" s="30">
         <f ca="1"/>
@@ -16072,7 +19194,7 @@
       </c>
       <c r="M15" s="29">
         <f ca="1"/>
-        <v>7.4817008309493917E-4</v>
+        <v>7.4972157188704137E-4</v>
       </c>
       <c r="O15" s="30">
         <f ca="1"/>
@@ -16111,7 +19233,7 @@
         <v>19</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V20" s="42"/>
     </row>
@@ -16119,7 +19241,7 @@
       <c r="B21" s="41"/>
       <c r="O21" s="9"/>
       <c r="P21" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="12">
@@ -16289,7 +19411,7 @@
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="P40" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V40" s="42"/>
     </row>
@@ -16346,7 +19468,7 @@
       <c r="M43" s="22"/>
       <c r="N43" s="33"/>
       <c r="O43" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P43" s="33"/>
       <c r="Q43" s="33"/>
@@ -16604,7 +19726,7 @@
       <c r="V59" s="45"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P21" xr:uid="{7355861E-2B7D-4294-9B02-D5DD457D5790}">
       <formula1>$C$10:$C$15</formula1>
     </dataValidation>
